--- a/Diana/output/dataset_ouput.xlsx
+++ b/Diana/output/dataset_ouput.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smdicher\Documents\GitHub\Abschlussarbeiten_Behr\Diana\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chern\Documents\GitHub\Abschlussarbeiten_Behr\Diana\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151585A7-42CB-4028-B76D-17B3EDC9F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="204" yWindow="1932" windowWidth="19548" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="all (2)" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="175">
   <si>
     <t>entity</t>
   </si>
@@ -537,12 +539,21 @@
   </si>
   <si>
     <t>['linear aldehyde', 'linear aldehyde']</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Spalte2</t>
+  </si>
+  <si>
+    <t>['ReO']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,7 +579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +595,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,23 +643,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -652,11 +683,20 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -666,31 +706,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <bottom style="thin">
           <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -723,16 +742,44 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -749,37 +796,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E76" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A1:E76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E76" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:E76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="entity"/>
-    <tableColumn id="2" name="classes"/>
-    <tableColumn id="3" name="cems"/>
-    <tableColumn id="4" name="category"/>
-    <tableColumn id="5" name="index"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="entity"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="classes"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="cems"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="category"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="index"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle13" displayName="Tabelle13" ref="A1:E76" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:E76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle13" displayName="Tabelle13" ref="A1:E76" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:E76" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="entity"/>
-    <tableColumn id="2" name="classes"/>
-    <tableColumn id="3" name="cems"/>
-    <tableColumn id="4" name="category"/>
-    <tableColumn id="5" name="index"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="entity"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="classes"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="cems"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="category"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="index"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F6D7A3F3-D652-4916-9B00-337A185BF1B2}" name="Tabelle3" displayName="Tabelle3" ref="A1:B35" totalsRowShown="0">
+  <autoFilter ref="A1:B35" xr:uid="{F6D7A3F3-D652-4916-9B00-337A185BF1B2}">
+    <filterColumn colId="1">
+      <colorFilter dxfId="3"/>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3B6595D2-FD32-4580-99B7-6ED8C1422610}" name="Spalte1" dataCellStyle="Link"/>
+    <tableColumn id="2" xr3:uid="{1F78F62B-2533-4C13-B14A-296B7EB339E7}" name="Spalte2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -817,9 +879,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -854,7 +916,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,7 +951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1062,22 +1124,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="61.28515625" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1230,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1332,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1349,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1366,7 +1428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1383,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1400,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1417,7 +1479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1434,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1451,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1468,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1536,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1570,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1604,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1638,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1655,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1689,7 +1751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1706,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1723,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1740,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1757,7 +1819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1791,7 +1853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -1808,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1859,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -1876,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1910,11 +1972,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
@@ -1927,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -1944,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1961,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1978,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1995,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2012,7 +2074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -2029,7 +2091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -2046,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -2063,7 +2125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -2080,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -2097,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -2114,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -2131,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -2165,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -2182,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -2216,7 +2278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -2233,7 +2295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -2250,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2284,7 +2346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -2301,7 +2363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -2318,7 +2380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -2335,7 +2397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2352,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -2381,22 +2443,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2413,14 +2475,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D2" t="s">
@@ -2430,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2447,14 +2509,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D4" t="s">
@@ -2464,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2481,14 +2543,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D6" t="s">
@@ -2498,14 +2560,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D7" t="s">
@@ -2515,7 +2577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2532,14 +2594,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D9" t="s">
@@ -2549,14 +2611,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D10" t="s">
@@ -2566,14 +2628,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D11" t="s">
@@ -2583,14 +2645,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
@@ -2600,14 +2662,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D13" t="s">
@@ -2617,14 +2679,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D14" t="s">
@@ -2634,14 +2696,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D15" t="s">
@@ -2651,7 +2713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2668,14 +2730,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D17" t="s">
@@ -2685,7 +2747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2702,7 +2764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2719,7 +2781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2736,14 +2798,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D21" t="s">
@@ -2753,14 +2815,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D22" t="s">
@@ -2770,14 +2832,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D23" t="s">
@@ -2787,15 +2849,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>82</v>
+      <c r="C24" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="D24" t="s">
         <v>100</v>
@@ -2804,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2821,7 +2883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2838,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2855,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2872,7 +2934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2889,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2906,14 +2968,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D31" t="s">
@@ -2923,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2940,14 +3002,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D33" t="s">
@@ -2957,14 +3019,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D34" t="s">
@@ -2974,14 +3036,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D35" t="s">
@@ -2991,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -3008,7 +3070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3025,14 +3087,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D38" t="s">
@@ -3042,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -3059,14 +3121,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>34</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D40" t="s">
@@ -3076,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -3093,7 +3155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -3110,7 +3172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -3127,14 +3189,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D44" t="s">
@@ -3144,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3161,7 +3223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -3178,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -3195,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -3212,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -3229,7 +3291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3246,7 +3308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -3263,14 +3325,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D52" t="s">
@@ -3280,14 +3342,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D53" t="s">
@@ -3297,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -3314,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -3331,14 +3393,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>41</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D56" t="s">
@@ -3348,7 +3410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -3365,14 +3427,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>43</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D58" t="s">
@@ -3382,14 +3444,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D59" t="s">
@@ -3399,14 +3461,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>45</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D60" t="s">
@@ -3416,14 +3478,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>46</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D61" t="s">
@@ -3433,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -3450,7 +3512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3467,14 +3529,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>48</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D64" t="s">
@@ -3484,7 +3546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -3501,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -3518,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -3535,14 +3597,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>49</v>
       </c>
       <c r="B68" t="s">
         <v>56</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D68" t="s">
@@ -3552,14 +3614,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>50</v>
       </c>
       <c r="B69" t="s">
         <v>56</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D69" t="s">
@@ -3569,7 +3631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -3586,14 +3648,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>51</v>
       </c>
       <c r="B71" t="s">
         <v>59</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
         <v>98</v>
       </c>
       <c r="D71" t="s">
@@ -3603,7 +3665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -3620,7 +3682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -3637,7 +3699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -3654,7 +3716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -3671,7 +3733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -3700,332 +3762,355 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="http://purl.obolibrary.org/obo/chebi_17478%27:" display="http://purl.obolibrary.org/obo/CHEBI_17478%27:"/>
-    <hyperlink ref="A2" r:id="rId2" tooltip="http://purl.obolibrary.org/obo/chebi_16052%27:" display="http://purl.obolibrary.org/obo/CHEBI_16052%27:"/>
-    <hyperlink ref="A3" r:id="rId3" tooltip="http://purl.obolibrary.org/obo/rxno_0000272%27:" display="http://purl.obolibrary.org/obo/RXNO_0000272%27:"/>
-    <hyperlink ref="A4" r:id="rId4" tooltip="http://purl.obolibrary.org/obo/chebi_33359%27:" display="http://purl.obolibrary.org/obo/CHEBI_33359%27:"/>
-    <hyperlink ref="A5" r:id="rId5" tooltip="http://purl.obolibrary.org/obo/chebi_18291%27:" display="http://purl.obolibrary.org/obo/CHEBI_18291%27:"/>
-    <hyperlink ref="A6" r:id="rId6" tooltip="http://purl.obolibrary.org/obo/chebi_33330%27:" display="http://purl.obolibrary.org/obo/CHEBI_33330%27:"/>
-    <hyperlink ref="A7" r:id="rId7" tooltip="http://purl.obolibrary.org/obo/chebi_27698%27:" display="http://purl.obolibrary.org/obo/CHEBI_27698%27:"/>
-    <hyperlink ref="A8" r:id="rId8" tooltip="http://purl.obolibrary.org/obo/chebi_18153%27:" display="http://purl.obolibrary.org/obo/CHEBI_18153%27:"/>
-    <hyperlink ref="A9" r:id="rId9" tooltip="http://purl.obolibrary.org/obo/chebi_30045%27:" display="http://purl.obolibrary.org/obo/CHEBI_30045%27:"/>
-    <hyperlink ref="A10" r:id="rId10" tooltip="http://purl.obolibrary.org/obo/chebi_33341%27:" display="http://purl.obolibrary.org/obo/CHEBI_33341%27:"/>
-    <hyperlink ref="A11" r:id="rId11" tooltip="http://purl.obolibrary.org/obo/chebi_17790%27:" display="http://purl.obolibrary.org/obo/CHEBI_17790%27:"/>
-    <hyperlink ref="A12" r:id="rId12" tooltip="http://purl.obolibrary.org/obo/chebi_32234%27:" display="http://purl.obolibrary.org/obo/CHEBI_32234%27:"/>
-    <hyperlink ref="A13" r:id="rId13" tooltip="http://purl.obolibrary.org/obo/chebi_28685%27:" display="http://purl.obolibrary.org/obo/CHEBI_28685%27:"/>
-    <hyperlink ref="A14" r:id="rId14" tooltip="http://purl.obolibrary.org/obo/chebi_27573%27:" display="http://purl.obolibrary.org/obo/CHEBI_27573%27:"/>
-    <hyperlink ref="A15" r:id="rId15" tooltip="http://purl.obolibrary.org/obo/chebi_30563%27:" display="http://purl.obolibrary.org/obo/CHEBI_30563%27:"/>
-    <hyperlink ref="A16" r:id="rId16" tooltip="http://purl.obolibrary.org/obo/chebi_30627%27:" display="http://purl.obolibrary.org/obo/CHEBI_30627%27:"/>
-    <hyperlink ref="A17" r:id="rId17" tooltip="http://purl.obolibrary.org/obo/chebi_17245%27:" display="http://purl.obolibrary.org/obo/CHEBI_17245%27:"/>
-    <hyperlink ref="A18" r:id="rId18" tooltip="http://purl.obolibrary.org/obo/mop_0000589%27:" display="http://purl.obolibrary.org/obo/MOP_0000589%27:"/>
-    <hyperlink ref="A19" r:id="rId19" tooltip="http://purl.obolibrary.org/obo/chebi_30187%27:" display="http://purl.obolibrary.org/obo/CHEBI_30187%27:"/>
-    <hyperlink ref="A20" r:id="rId20" tooltip="http://purl.obolibrary.org/obo/chebi_17153%27:" display="http://purl.obolibrary.org/obo/CHEBI_17153%27:"/>
-    <hyperlink ref="A21" r:id="rId21" tooltip="http://purl.obolibrary.org/obo/chebi_27638%27:" display="http://purl.obolibrary.org/obo/CHEBI_27638%27:"/>
-    <hyperlink ref="A22" r:id="rId22" tooltip="http://purl.obolibrary.org/obo/chebi_28831%27:" display="http://purl.obolibrary.org/obo/CHEBI_28831%27:"/>
-    <hyperlink ref="A23" r:id="rId23" tooltip="http://purl.obolibrary.org/obo/chebi_42266%27:" display="http://purl.obolibrary.org/obo/CHEBI_42266%27:"/>
-    <hyperlink ref="A24" r:id="rId24" tooltip="http://purl.obolibrary.org/obo/chebi_28984%27:" display="http://purl.obolibrary.org/obo/CHEBI_28984%27:"/>
-    <hyperlink ref="A25" r:id="rId25" tooltip="http://purl.obolibrary.org/obo/chebi_89713%27:" display="http://purl.obolibrary.org/obo/CHEBI_89713%27:"/>
-    <hyperlink ref="A26" r:id="rId26" tooltip="http://purl.obolibrary.org/obo/chebi_48729%27:" display="http://purl.obolibrary.org/obo/CHEBI_48729%27:"/>
-    <hyperlink ref="A27" r:id="rId27" tooltip="http://purl.obolibrary.org/obo/chebi_24579%27:" display="http://purl.obolibrary.org/obo/CHEBI_24579%27:"/>
-    <hyperlink ref="A28" r:id="rId28" tooltip="http://purl.obolibrary.org/obo/chebi_27363%27:" display="http://purl.obolibrary.org/obo/CHEBI_27363%27:"/>
-    <hyperlink ref="A29" r:id="rId29" tooltip="http://purl.obolibrary.org/obo/chebi_35780%27:" display="http://purl.obolibrary.org/obo/CHEBI_35780%27:"/>
-    <hyperlink ref="A30" r:id="rId30" tooltip="http://purl.obolibrary.org/obo/chebi_36560%27:" display="http://purl.obolibrary.org/obo/CHEBI_36560%27:"/>
-    <hyperlink ref="A31" r:id="rId31" tooltip="http://purl.obolibrary.org/obo/chebi_33468%27:" display="http://purl.obolibrary.org/obo/CHEBI_33468%27:"/>
-    <hyperlink ref="A32" r:id="rId32" tooltip="http://purl.obolibrary.org/obo/chebi_27452%27:" display="http://purl.obolibrary.org/obo/CHEBI_27452%27:"/>
-    <hyperlink ref="A33" r:id="rId33" tooltip="http://purl.obolibrary.org/obo/chebi_49882%27:" display="http://purl.obolibrary.org/obo/CHEBI_49882%27:"/>
-    <hyperlink ref="A34" r:id="rId34" tooltip="http://purl.obolibrary.org/obo/mop_0000479%27:" display="http://purl.obolibrary.org/obo/MOP_0000479%27:"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="http://purl.obolibrary.org/obo/chebi_17478%27:" display="http://purl.obolibrary.org/obo/CHEBI_17478%27:" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="http://purl.obolibrary.org/obo/chebi_16052%27:" display="http://purl.obolibrary.org/obo/CHEBI_16052%27:" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="http://purl.obolibrary.org/obo/rxno_0000272%27:" display="http://purl.obolibrary.org/obo/RXNO_0000272%27:" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" tooltip="http://purl.obolibrary.org/obo/chebi_33359%27:" display="http://purl.obolibrary.org/obo/CHEBI_33359%27:" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" tooltip="http://purl.obolibrary.org/obo/chebi_18291%27:" display="http://purl.obolibrary.org/obo/CHEBI_18291%27:" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="http://purl.obolibrary.org/obo/chebi_33330%27:" display="http://purl.obolibrary.org/obo/CHEBI_33330%27:" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" tooltip="http://purl.obolibrary.org/obo/chebi_27698%27:" display="http://purl.obolibrary.org/obo/CHEBI_27698%27:" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" tooltip="http://purl.obolibrary.org/obo/chebi_18153%27:" display="http://purl.obolibrary.org/obo/CHEBI_18153%27:" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" tooltip="http://purl.obolibrary.org/obo/chebi_30045%27:" display="http://purl.obolibrary.org/obo/CHEBI_30045%27:" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" tooltip="http://purl.obolibrary.org/obo/chebi_33341%27:" display="http://purl.obolibrary.org/obo/CHEBI_33341%27:" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" tooltip="http://purl.obolibrary.org/obo/chebi_17790%27:" display="http://purl.obolibrary.org/obo/CHEBI_17790%27:" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" tooltip="http://purl.obolibrary.org/obo/chebi_32234%27:" display="http://purl.obolibrary.org/obo/CHEBI_32234%27:" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" tooltip="http://purl.obolibrary.org/obo/chebi_28685%27:" display="http://purl.obolibrary.org/obo/CHEBI_28685%27:" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" tooltip="http://purl.obolibrary.org/obo/chebi_27573%27:" display="http://purl.obolibrary.org/obo/CHEBI_27573%27:" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" tooltip="http://purl.obolibrary.org/obo/chebi_30563%27:" display="http://purl.obolibrary.org/obo/CHEBI_30563%27:" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" tooltip="http://purl.obolibrary.org/obo/chebi_30627%27:" display="http://purl.obolibrary.org/obo/CHEBI_30627%27:" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" tooltip="http://purl.obolibrary.org/obo/chebi_17245%27:" display="http://purl.obolibrary.org/obo/CHEBI_17245%27:" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" tooltip="http://purl.obolibrary.org/obo/mop_0000589%27:" display="http://purl.obolibrary.org/obo/MOP_0000589%27:" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" tooltip="http://purl.obolibrary.org/obo/chebi_30187%27:" display="http://purl.obolibrary.org/obo/CHEBI_30187%27:" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" tooltip="http://purl.obolibrary.org/obo/chebi_17153%27:" display="http://purl.obolibrary.org/obo/CHEBI_17153%27:" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" tooltip="http://purl.obolibrary.org/obo/chebi_27638%27:" display="http://purl.obolibrary.org/obo/CHEBI_27638%27:" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" tooltip="http://purl.obolibrary.org/obo/chebi_28831%27:" display="http://purl.obolibrary.org/obo/CHEBI_28831%27:" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" tooltip="http://purl.obolibrary.org/obo/chebi_42266%27:" display="http://purl.obolibrary.org/obo/CHEBI_42266%27:" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" tooltip="http://purl.obolibrary.org/obo/chebi_28984%27:" display="http://purl.obolibrary.org/obo/CHEBI_28984%27:" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" tooltip="http://purl.obolibrary.org/obo/chebi_89713%27:" display="http://purl.obolibrary.org/obo/CHEBI_89713%27:" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" tooltip="http://purl.obolibrary.org/obo/chebi_48729%27:" display="http://purl.obolibrary.org/obo/CHEBI_48729%27:" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" tooltip="http://purl.obolibrary.org/obo/chebi_24579%27:" display="http://purl.obolibrary.org/obo/CHEBI_24579%27:" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" tooltip="http://purl.obolibrary.org/obo/chebi_27363%27:" display="http://purl.obolibrary.org/obo/CHEBI_27363%27:" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" tooltip="http://purl.obolibrary.org/obo/chebi_35780%27:" display="http://purl.obolibrary.org/obo/CHEBI_35780%27:" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" tooltip="http://purl.obolibrary.org/obo/chebi_36560%27:" display="http://purl.obolibrary.org/obo/CHEBI_36560%27:" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" tooltip="http://purl.obolibrary.org/obo/chebi_33468%27:" display="http://purl.obolibrary.org/obo/CHEBI_33468%27:" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" tooltip="http://purl.obolibrary.org/obo/chebi_27452%27:" display="http://purl.obolibrary.org/obo/CHEBI_27452%27:" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" tooltip="http://purl.obolibrary.org/obo/chebi_49882%27:" display="http://purl.obolibrary.org/obo/CHEBI_49882%27:" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" tooltip="http://purl.obolibrary.org/obo/mop_0000479%27:" display="http://purl.obolibrary.org/obo/MOP_0000479%27:" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId35"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4920FE9-F456-46A1-9F50-78CD92CAAC83}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>